--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
@@ -866,7 +866,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
         <x:v>245</x:v>
@@ -914,7 +914,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>772</x:v>
+        <x:v>773</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
@@ -2429,7 +2429,7 @@
         <x:v>273</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>924</x:v>
+        <x:v>925</x:v>
       </x:c>
       <x:c r="G27" s="0" t="n">
         <x:v>5</x:v>
@@ -2468,13 +2468,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="S27" s="0" t="n">
-        <x:v>262</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="T27" s="0" t="n">
         <x:v>182</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>3407</x:v>
+        <x:v>3409</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
@@ -4639,7 +4639,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
-        <x:v>487</x:v>
+        <x:v>486</x:v>
       </x:c>
       <x:c r="G61" s="0" t="n">
         <x:v>0</x:v>
@@ -4657,16 +4657,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L61" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="M61" s="0" t="n">
-        <x:v>287</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="N61" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="O61" s="0" t="n">
-        <x:v>116</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="P61" s="0" t="n">
         <x:v>10</x:v>
@@ -4681,7 +4681,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="T61" s="0" t="n">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="U61" s="1" t="n">
         <x:v>1313</x:v>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
@@ -3339,7 +3339,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="G41" s="0" t="n">
         <x:v>0</x:v>
@@ -3384,7 +3384,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U41" s="1" t="n">
-        <x:v>160</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:21">
@@ -4660,7 +4660,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="M61" s="0" t="n">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="N61" s="0" t="n">
         <x:v>2</x:v>
@@ -4678,13 +4678,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="S61" s="0" t="n">
-        <x:v>64</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="T61" s="0" t="n">
         <x:v>73</x:v>
       </x:c>
       <x:c r="U61" s="1" t="n">
-        <x:v>1313</x:v>
+        <x:v>1311</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
@@ -5316,7 +5316,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O71" s="0" t="n">
-        <x:v>107</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="P71" s="0" t="n">
         <x:v>0</x:v>
@@ -5334,7 +5334,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="U71" s="1" t="n">
-        <x:v>354</x:v>
+        <x:v>352</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
@@ -890,7 +890,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="M3" s="0" t="n">
-        <x:v>348</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="N3" s="0" t="n">
         <x:v>0</x:v>
@@ -914,7 +914,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>773</x:v>
+        <x:v>774</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">
@@ -1324,7 +1324,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
         <x:v>0</x:v>
@@ -1345,7 +1345,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="M10" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="N10" s="0" t="n">
         <x:v>0</x:v>
@@ -1363,13 +1363,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="S10" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="T10" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="U10" s="1" t="n">
-        <x:v>196</x:v>
+        <x:v>192</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:21">
@@ -2290,7 +2290,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C25" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D25" s="0" t="n">
         <x:v>0</x:v>
@@ -2299,7 +2299,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G25" s="0" t="n">
         <x:v>0</x:v>
@@ -2326,7 +2326,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O25" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P25" s="0" t="n">
         <x:v>1</x:v>
@@ -2344,7 +2344,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U25" s="1" t="n">
-        <x:v>140</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
@@ -5419,7 +5419,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F73" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G73" s="0" t="n">
         <x:v>0</x:v>
@@ -5464,7 +5464,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U73" s="1" t="n">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
@@ -3360,7 +3360,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="M41" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="N41" s="0" t="n">
         <x:v>1</x:v>
@@ -3384,7 +3384,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U41" s="1" t="n">
-        <x:v>159</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
@@ -1584,7 +1584,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G14" s="0" t="n">
         <x:v>2</x:v>
@@ -1605,13 +1605,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="M14" s="0" t="n">
-        <x:v>104</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="N14" s="0" t="n">
         <x:v>55</x:v>
       </x:c>
       <x:c r="O14" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="P14" s="0" t="n">
         <x:v>5</x:v>
@@ -1629,7 +1629,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="U14" s="1" t="n">
-        <x:v>371</x:v>
+        <x:v>361</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
@@ -4899,7 +4899,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
-        <x:v>106</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="G65" s="0" t="n">
         <x:v>0</x:v>
@@ -4926,7 +4926,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="O65" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P65" s="0" t="n">
         <x:v>5</x:v>
@@ -4944,7 +4944,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="U65" s="1" t="n">
-        <x:v>259</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
@@ -1983,7 +1983,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I20" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J20" s="0" t="n">
         <x:v>0</x:v>
@@ -2019,7 +2019,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U20" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:21">
@@ -4639,7 +4639,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
-        <x:v>486</x:v>
+        <x:v>485</x:v>
       </x:c>
       <x:c r="G61" s="0" t="n">
         <x:v>0</x:v>
@@ -4666,7 +4666,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="O61" s="0" t="n">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="P61" s="0" t="n">
         <x:v>10</x:v>
@@ -4684,7 +4684,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="U61" s="1" t="n">
-        <x:v>1311</x:v>
+        <x:v>1309</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
@@ -3339,7 +3339,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G41" s="0" t="n">
         <x:v>0</x:v>
@@ -3348,7 +3348,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I41" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="J41" s="0" t="n">
         <x:v>5</x:v>
@@ -3384,7 +3384,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U41" s="1" t="n">
-        <x:v>158</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:21">
@@ -4172,29 +4172,29 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="B54" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C54" s="0" t="n">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D54" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E54" s="0" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F54" s="0" t="n">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="G54" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H54" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I54" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="C54" s="0" t="n">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="D54" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E54" s="0" t="n">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F54" s="0" t="n">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="G54" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H54" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="I54" s="0" t="n">
-        <x:v>19</x:v>
-      </x:c>
       <x:c r="J54" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
@@ -4202,34 +4202,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L54" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="M54" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="N54" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O54" s="0" t="n">
-        <x:v>117</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="P54" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="Q54" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R54" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="S54" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="T54" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="U54" s="1" t="n">
-        <x:v>519</x:v>
+        <x:v>393</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
@@ -869,7 +869,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>0</x:v>
@@ -914,7 +914,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>774</x:v>
+        <x:v>773</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">
@@ -5419,7 +5419,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F73" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G73" s="0" t="n">
         <x:v>0</x:v>
@@ -5464,7 +5464,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U73" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
@@ -2456,7 +2456,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="O27" s="0" t="n">
-        <x:v>572</x:v>
+        <x:v>571</x:v>
       </x:c>
       <x:c r="P27" s="0" t="n">
         <x:v>20</x:v>
@@ -2474,7 +2474,7 @@
         <x:v>182</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>3409</x:v>
+        <x:v>3408</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
@@ -2429,7 +2429,7 @@
         <x:v>273</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>925</x:v>
+        <x:v>922</x:v>
       </x:c>
       <x:c r="G27" s="0" t="n">
         <x:v>5</x:v>
@@ -2474,7 +2474,7 @@
         <x:v>182</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>3408</x:v>
+        <x:v>3405</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">
@@ -4899,7 +4899,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
-        <x:v>105</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G65" s="0" t="n">
         <x:v>0</x:v>
@@ -4944,7 +4944,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="U65" s="1" t="n">
-        <x:v>257</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
@@ -890,7 +890,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="M3" s="0" t="n">
-        <x:v>349</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="N3" s="0" t="n">
         <x:v>0</x:v>
@@ -914,7 +914,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>773</x:v>
+        <x:v>772</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
@@ -4184,7 +4184,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F54" s="0" t="n">
-        <x:v>142</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="G54" s="0" t="n">
         <x:v>0</x:v>
@@ -4229,7 +4229,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="U54" s="1" t="n">
-        <x:v>393</x:v>
+        <x:v>392</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
@@ -866,10 +866,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>0</x:v>
@@ -878,7 +878,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="I3" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="J3" s="0" t="n">
         <x:v>5</x:v>
@@ -914,7 +914,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>772</x:v>
+        <x:v>769</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">
@@ -2417,7 +2417,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="B27" s="0" t="n">
-        <x:v>129</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="C27" s="0" t="n">
         <x:v>251</x:v>
@@ -2426,7 +2426,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E27" s="0" t="n">
-        <x:v>273</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
         <x:v>922</x:v>
@@ -2450,13 +2450,13 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="M27" s="0" t="n">
-        <x:v>424</x:v>
+        <x:v>423</x:v>
       </x:c>
       <x:c r="N27" s="0" t="n">
         <x:v>47</x:v>
       </x:c>
       <x:c r="O27" s="0" t="n">
-        <x:v>571</x:v>
+        <x:v>568</x:v>
       </x:c>
       <x:c r="P27" s="0" t="n">
         <x:v>20</x:v>
@@ -2471,10 +2471,10 @@
         <x:v>263</x:v>
       </x:c>
       <x:c r="T27" s="0" t="n">
-        <x:v>182</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>3405</x:v>
+        <x:v>3398</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
@@ -2417,7 +2417,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="B27" s="0" t="n">
-        <x:v>128</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C27" s="0" t="n">
         <x:v>251</x:v>
@@ -2426,10 +2426,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E27" s="0" t="n">
-        <x:v>272</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>922</x:v>
+        <x:v>920</x:v>
       </x:c>
       <x:c r="G27" s="0" t="n">
         <x:v>5</x:v>
@@ -2450,13 +2450,13 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="M27" s="0" t="n">
-        <x:v>423</x:v>
+        <x:v>422</x:v>
       </x:c>
       <x:c r="N27" s="0" t="n">
         <x:v>47</x:v>
       </x:c>
       <x:c r="O27" s="0" t="n">
-        <x:v>568</x:v>
+        <x:v>565</x:v>
       </x:c>
       <x:c r="P27" s="0" t="n">
         <x:v>20</x:v>
@@ -2474,7 +2474,7 @@
         <x:v>181</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>3398</x:v>
+        <x:v>3389</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">
@@ -5939,7 +5939,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="F81" s="0" t="n">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="G81" s="0" t="n">
         <x:v>1</x:v>
@@ -5960,7 +5960,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="M81" s="0" t="n">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="N81" s="0" t="n">
         <x:v>23</x:v>
@@ -5984,7 +5984,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="U81" s="1" t="n">
-        <x:v>793</x:v>
+        <x:v>795</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
@@ -890,7 +890,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="M3" s="0" t="n">
-        <x:v>348</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="N3" s="0" t="n">
         <x:v>0</x:v>
@@ -914,7 +914,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>769</x:v>
+        <x:v>768</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">
@@ -2450,7 +2450,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="M27" s="0" t="n">
-        <x:v>422</x:v>
+        <x:v>421</x:v>
       </x:c>
       <x:c r="N27" s="0" t="n">
         <x:v>47</x:v>
@@ -2474,7 +2474,7 @@
         <x:v>181</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>3389</x:v>
+        <x:v>3388</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
@@ -5960,7 +5960,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="M81" s="0" t="n">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="N81" s="0" t="n">
         <x:v>23</x:v>
@@ -5984,7 +5984,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="U81" s="1" t="n">
-        <x:v>795</x:v>
+        <x:v>794</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
@@ -2450,13 +2450,13 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="M27" s="0" t="n">
-        <x:v>421</x:v>
+        <x:v>419</x:v>
       </x:c>
       <x:c r="N27" s="0" t="n">
         <x:v>47</x:v>
       </x:c>
       <x:c r="O27" s="0" t="n">
-        <x:v>565</x:v>
+        <x:v>564</x:v>
       </x:c>
       <x:c r="P27" s="0" t="n">
         <x:v>20</x:v>
@@ -2468,13 +2468,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="S27" s="0" t="n">
-        <x:v>263</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="T27" s="0" t="n">
         <x:v>181</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>3388</x:v>
+        <x:v>3383</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
@@ -2450,7 +2450,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="M27" s="0" t="n">
-        <x:v>419</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="N27" s="0" t="n">
         <x:v>47</x:v>
@@ -2471,10 +2471,10 @@
         <x:v>261</x:v>
       </x:c>
       <x:c r="T27" s="0" t="n">
-        <x:v>181</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>3383</x:v>
+        <x:v>3380</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
@@ -2438,7 +2438,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="I27" s="0" t="n">
-        <x:v>215</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="J27" s="0" t="n">
         <x:v>5</x:v>
@@ -2456,7 +2456,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="O27" s="0" t="n">
-        <x:v>564</x:v>
+        <x:v>563</x:v>
       </x:c>
       <x:c r="P27" s="0" t="n">
         <x:v>20</x:v>
@@ -2471,10 +2471,10 @@
         <x:v>261</x:v>
       </x:c>
       <x:c r="T27" s="0" t="n">
-        <x:v>180</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>3380</x:v>
+        <x:v>3377</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
@@ -890,7 +890,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="M3" s="0" t="n">
-        <x:v>347</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="N3" s="0" t="n">
         <x:v>0</x:v>
@@ -914,7 +914,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>768</x:v>
+        <x:v>767</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">
@@ -1194,7 +1194,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
         <x:v>0</x:v>
@@ -1239,7 +1239,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U8" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:21">
@@ -4175,7 +4175,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C54" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D54" s="0" t="n">
         <x:v>0</x:v>
@@ -4211,7 +4211,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O54" s="0" t="n">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P54" s="0" t="n">
         <x:v>7</x:v>
@@ -4226,10 +4226,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="T54" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="U54" s="1" t="n">
-        <x:v>392</x:v>
+        <x:v>396</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
@@ -2417,7 +2417,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="B27" s="0" t="n">
-        <x:v>126</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C27" s="0" t="n">
         <x:v>251</x:v>
@@ -2438,7 +2438,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="I27" s="0" t="n">
-        <x:v>214</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="J27" s="0" t="n">
         <x:v>5</x:v>
@@ -2450,13 +2450,13 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="M27" s="0" t="n">
-        <x:v>417</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="N27" s="0" t="n">
         <x:v>47</x:v>
       </x:c>
       <x:c r="O27" s="0" t="n">
-        <x:v>563</x:v>
+        <x:v>562</x:v>
       </x:c>
       <x:c r="P27" s="0" t="n">
         <x:v>20</x:v>
@@ -2474,7 +2474,7 @@
         <x:v>179</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>3377</x:v>
+        <x:v>3373</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">
@@ -4184,7 +4184,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F54" s="0" t="n">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="G54" s="0" t="n">
         <x:v>0</x:v>
@@ -4229,7 +4229,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="U54" s="1" t="n">
-        <x:v>396</x:v>
+        <x:v>398</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
@@ -890,7 +890,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="M3" s="0" t="n">
-        <x:v>346</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="N3" s="0" t="n">
         <x:v>0</x:v>
@@ -914,7 +914,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>767</x:v>
+        <x:v>766</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">
@@ -2456,7 +2456,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="O27" s="0" t="n">
-        <x:v>562</x:v>
+        <x:v>561</x:v>
       </x:c>
       <x:c r="P27" s="0" t="n">
         <x:v>20</x:v>
@@ -2474,7 +2474,7 @@
         <x:v>179</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>3373</x:v>
+        <x:v>3372</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
@@ -2450,13 +2450,13 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="M27" s="0" t="n">
-        <x:v>416</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="N27" s="0" t="n">
         <x:v>47</x:v>
       </x:c>
       <x:c r="O27" s="0" t="n">
-        <x:v>561</x:v>
+        <x:v>558</x:v>
       </x:c>
       <x:c r="P27" s="0" t="n">
         <x:v>20</x:v>
@@ -2474,7 +2474,7 @@
         <x:v>179</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>3372</x:v>
+        <x:v>3368</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">
@@ -5115,7 +5115,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="M68" s="0" t="n">
-        <x:v>178</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="N68" s="0" t="n">
         <x:v>14</x:v>
@@ -5139,7 +5139,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="U68" s="1" t="n">
-        <x:v>776</x:v>
+        <x:v>775</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
@@ -2429,7 +2429,7 @@
         <x:v>271</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>920</x:v>
+        <x:v>918</x:v>
       </x:c>
       <x:c r="G27" s="0" t="n">
         <x:v>5</x:v>
@@ -2438,7 +2438,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="I27" s="0" t="n">
-        <x:v>213</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="J27" s="0" t="n">
         <x:v>5</x:v>
@@ -2450,13 +2450,13 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="M27" s="0" t="n">
-        <x:v>415</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="N27" s="0" t="n">
         <x:v>47</x:v>
       </x:c>
       <x:c r="O27" s="0" t="n">
-        <x:v>558</x:v>
+        <x:v>555</x:v>
       </x:c>
       <x:c r="P27" s="0" t="n">
         <x:v>20</x:v>
@@ -2474,7 +2474,7 @@
         <x:v>179</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>3368</x:v>
+        <x:v>3358</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
@@ -2438,7 +2438,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="I27" s="0" t="n">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="J27" s="0" t="n">
         <x:v>5</x:v>
@@ -2450,13 +2450,13 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="M27" s="0" t="n">
-        <x:v>412</x:v>
+        <x:v>410</x:v>
       </x:c>
       <x:c r="N27" s="0" t="n">
         <x:v>47</x:v>
       </x:c>
       <x:c r="O27" s="0" t="n">
-        <x:v>555</x:v>
+        <x:v>553</x:v>
       </x:c>
       <x:c r="P27" s="0" t="n">
         <x:v>20</x:v>
@@ -2468,13 +2468,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="S27" s="0" t="n">
-        <x:v>261</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="T27" s="0" t="n">
-        <x:v>179</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>3358</x:v>
+        <x:v>3350</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">
@@ -4704,7 +4704,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G62" s="0" t="n">
         <x:v>0</x:v>
@@ -4725,13 +4725,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M62" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="N62" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O62" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="P62" s="0" t="n">
         <x:v>0</x:v>
@@ -4749,7 +4749,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U62" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
@@ -4175,16 +4175,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C54" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D54" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E54" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F54" s="0" t="n">
-        <x:v>143</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="G54" s="0" t="n">
         <x:v>0</x:v>
@@ -4193,7 +4193,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="I54" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="J54" s="0" t="n">
         <x:v>2</x:v>
@@ -4202,16 +4202,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L54" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="M54" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="N54" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="O54" s="0" t="n">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="P54" s="0" t="n">
         <x:v>7</x:v>
@@ -4226,10 +4226,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="T54" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="U54" s="1" t="n">
-        <x:v>398</x:v>
+        <x:v>426</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
@@ -860,7 +860,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
         <x:v>0</x:v>
@@ -914,7 +914,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>766</x:v>
+        <x:v>765</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">
@@ -2456,7 +2456,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="O27" s="0" t="n">
-        <x:v>553</x:v>
+        <x:v>552</x:v>
       </x:c>
       <x:c r="P27" s="0" t="n">
         <x:v>20</x:v>
@@ -2474,7 +2474,7 @@
         <x:v>177</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>3350</x:v>
+        <x:v>3349</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
@@ -2468,13 +2468,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="S27" s="0" t="n">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="T27" s="0" t="n">
         <x:v>177</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>3349</x:v>
+        <x:v>3350</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">
@@ -5960,7 +5960,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="M81" s="0" t="n">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="N81" s="0" t="n">
         <x:v>23</x:v>
@@ -5984,7 +5984,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="U81" s="1" t="n">
-        <x:v>794</x:v>
+        <x:v>795</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
@@ -890,7 +890,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="M3" s="0" t="n">
-        <x:v>345</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="N3" s="0" t="n">
         <x:v>0</x:v>
@@ -914,7 +914,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>765</x:v>
+        <x:v>764</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
@@ -890,7 +890,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="M3" s="0" t="n">
-        <x:v>344</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="N3" s="0" t="n">
         <x:v>0</x:v>
@@ -914,7 +914,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>764</x:v>
+        <x:v>763</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
@@ -2429,7 +2429,7 @@
         <x:v>271</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>918</x:v>
+        <x:v>917</x:v>
       </x:c>
       <x:c r="G27" s="0" t="n">
         <x:v>5</x:v>
@@ -2438,7 +2438,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="I27" s="0" t="n">
-        <x:v>210</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="J27" s="0" t="n">
         <x:v>5</x:v>
@@ -2456,7 +2456,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="O27" s="0" t="n">
-        <x:v>552</x:v>
+        <x:v>551</x:v>
       </x:c>
       <x:c r="P27" s="0" t="n">
         <x:v>20</x:v>
@@ -2474,7 +2474,7 @@
         <x:v>177</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>3350</x:v>
+        <x:v>3346</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
@@ -2456,7 +2456,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="O27" s="0" t="n">
-        <x:v>551</x:v>
+        <x:v>550</x:v>
       </x:c>
       <x:c r="P27" s="0" t="n">
         <x:v>20</x:v>
@@ -2474,7 +2474,7 @@
         <x:v>177</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>3346</x:v>
+        <x:v>3345</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
@@ -2429,7 +2429,7 @@
         <x:v>271</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>917</x:v>
+        <x:v>916</x:v>
       </x:c>
       <x:c r="G27" s="0" t="n">
         <x:v>5</x:v>
@@ -2474,7 +2474,7 @@
         <x:v>177</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>3345</x:v>
+        <x:v>3344</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
@@ -397,19 +397,19 @@
     <x:t>Hennepin</x:t>
   </x:si>
   <x:si>
-    <x:t>125</x:t>
-  </x:si>
-  <x:si>
-    <x:t>251</x:t>
+    <x:t>124</x:t>
+  </x:si>
+  <x:si>
+    <x:t>250</x:t>
   </x:si>
   <x:si>
     <x:t>268</x:t>
   </x:si>
   <x:si>
-    <x:t>913</x:t>
-  </x:si>
-  <x:si>
-    <x:t>208</x:t>
+    <x:t>909</x:t>
+  </x:si>
+  <x:si>
+    <x:t>207</x:t>
   </x:si>
   <x:si>
     <x:t>410</x:t>
@@ -418,270 +418,273 @@
     <x:t>550</x:t>
   </x:si>
   <x:si>
+    <x:t>261</x:t>
+  </x:si>
+  <x:si>
+    <x:t>176</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3328</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Houston</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hubbard</x:t>
+  </x:si>
+  <x:si>
+    <x:t>111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>128</x:t>
+  </x:si>
+  <x:si>
+    <x:t>266</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Isanti</x:t>
+  </x:si>
+  <x:si>
+    <x:t>92</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Itasca</x:t>
+  </x:si>
+  <x:si>
+    <x:t>158</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jackson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kanabec</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kandiyohi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>98</x:t>
+  </x:si>
+  <x:si>
+    <x:t>139</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>335</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kittson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Koochiching</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lac qui Parle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lake</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Le Sueur</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lincoln</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lyon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>155</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahnomen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marshall</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Martin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>McLeod</x:t>
+  </x:si>
+  <x:si>
+    <x:t>73</x:t>
+  </x:si>
+  <x:si>
     <x:t>35</x:t>
   </x:si>
   <x:si>
-    <x:t>261</x:t>
+    <x:t>157</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Meeker</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mille Lacs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>222</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Morrison</x:t>
+  </x:si>
+  <x:si>
+    <x:t>80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mower</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>110</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Murray</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nicollet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nobles</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>163</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Norman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Olmsted</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150</x:t>
+  </x:si>
+  <x:si>
+    <x:t>91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>426</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Otter Tail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74</x:t>
+  </x:si>
+  <x:si>
+    <x:t>166</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pennington</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pine</x:t>
+  </x:si>
+  <x:si>
+    <x:t>198</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pipestone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Polk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>217</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pope</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ramsey</x:t>
+  </x:si>
+  <x:si>
+    <x:t>485</x:t>
+  </x:si>
+  <x:si>
+    <x:t>71</x:t>
+  </x:si>
+  <x:si>
+    <x:t>285</x:t>
+  </x:si>
+  <x:si>
+    <x:t>117</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1309</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Red Lake</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Redwood</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Renville</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>254</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rock</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roseau</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scott</x:t>
+  </x:si>
+  <x:si>
+    <x:t>172</x:t>
   </x:si>
   <x:si>
     <x:t>177</x:t>
   </x:si>
   <x:si>
-    <x:t>3337</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Houston</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hubbard</x:t>
-  </x:si>
-  <x:si>
-    <x:t>111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>128</x:t>
-  </x:si>
-  <x:si>
-    <x:t>266</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Isanti</x:t>
-  </x:si>
-  <x:si>
-    <x:t>92</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Itasca</x:t>
-  </x:si>
-  <x:si>
-    <x:t>158</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jackson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kanabec</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kandiyohi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>98</x:t>
-  </x:si>
-  <x:si>
-    <x:t>139</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>335</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kittson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Koochiching</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lac qui Parle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lake</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Le Sueur</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lincoln</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lyon</x:t>
-  </x:si>
-  <x:si>
-    <x:t>155</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahnomen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Marshall</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Martin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36</x:t>
-  </x:si>
-  <x:si>
-    <x:t>McLeod</x:t>
-  </x:si>
-  <x:si>
-    <x:t>73</x:t>
-  </x:si>
-  <x:si>
-    <x:t>157</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Meeker</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mille Lacs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>222</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Morrison</x:t>
-  </x:si>
-  <x:si>
-    <x:t>80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mower</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>110</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Murray</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nicollet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>131</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nobles</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>163</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Norman</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Olmsted</x:t>
-  </x:si>
-  <x:si>
-    <x:t>150</x:t>
-  </x:si>
-  <x:si>
-    <x:t>91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>426</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Otter Tail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>74</x:t>
-  </x:si>
-  <x:si>
-    <x:t>166</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pennington</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pine</x:t>
-  </x:si>
-  <x:si>
-    <x:t>198</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pipestone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Polk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>217</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pope</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ramsey</x:t>
-  </x:si>
-  <x:si>
-    <x:t>485</x:t>
-  </x:si>
-  <x:si>
-    <x:t>71</x:t>
-  </x:si>
-  <x:si>
-    <x:t>285</x:t>
-  </x:si>
-  <x:si>
-    <x:t>117</x:t>
-  </x:si>
-  <x:si>
-    <x:t>63</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1309</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Red Lake</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Redwood</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Renville</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>254</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rock</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roseau</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Scott</x:t>
-  </x:si>
-  <x:si>
-    <x:t>172</x:t>
-  </x:si>
-  <x:si>
     <x:t>775</x:t>
   </x:si>
   <x:si>
@@ -755,9 +758,6 @@
   </x:si>
   <x:si>
     <x:t>281</x:t>
-  </x:si>
-  <x:si>
-    <x:t>124</x:t>
   </x:si>
   <x:si>
     <x:t>134</x:t>
@@ -2930,21 +2930,21 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R27" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="S27" s="0" t="s">
         <x:v>134</x:v>
       </x:c>
-      <x:c r="S27" s="0" t="s">
+      <x:c r="T27" s="0" t="s">
         <x:v>135</x:v>
       </x:c>
-      <x:c r="T27" s="0" t="s">
+      <x:c r="U27" s="1" t="s">
         <x:v>136</x:v>
-      </x:c>
-      <x:c r="U27" s="1" t="s">
-        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">
       <x:c r="A28" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>23</x:v>
@@ -3009,7 +3009,7 @@
     </x:row>
     <x:row r="29" spans="1:21">
       <x:c r="A29" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>23</x:v>
@@ -3024,7 +3024,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="F29" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="G29" s="0" t="s">
         <x:v>23</x:v>
@@ -3045,36 +3045,36 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="M29" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="N29" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="O29" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="P29" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="Q29" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="R29" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="S29" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="T29" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="U29" s="1" t="s">
         <x:v>141</x:v>
-      </x:c>
-      <x:c r="N29" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="O29" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="P29" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="Q29" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="R29" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="S29" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="T29" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="U29" s="1" t="s">
-        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:21">
       <x:c r="A30" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>23</x:v>
@@ -3134,12 +3134,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U30" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:21">
       <x:c r="A31" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>23</x:v>
@@ -3199,12 +3199,12 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="U31" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:21">
       <x:c r="A32" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>23</x:v>
@@ -3269,7 +3269,7 @@
     </x:row>
     <x:row r="33" spans="1:21">
       <x:c r="A33" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>23</x:v>
@@ -3329,12 +3329,12 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="U33" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:21">
       <x:c r="A34" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>23</x:v>
@@ -3349,7 +3349,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F34" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="G34" s="0" t="s">
         <x:v>23</x:v>
@@ -3370,13 +3370,13 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="M34" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="N34" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="O34" s="0" t="s">
         <x:v>152</x:v>
-      </x:c>
-      <x:c r="N34" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="O34" s="0" t="s">
-        <x:v>153</x:v>
       </x:c>
       <x:c r="P34" s="0" t="s">
         <x:v>28</x:v>
@@ -3394,12 +3394,12 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="U34" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:21">
       <x:c r="A35" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>23</x:v>
@@ -3464,7 +3464,7 @@
     </x:row>
     <x:row r="36" spans="1:21">
       <x:c r="A36" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>23</x:v>
@@ -3500,7 +3500,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M36" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="N36" s="0" t="s">
         <x:v>27</x:v>
@@ -3529,7 +3529,7 @@
     </x:row>
     <x:row r="37" spans="1:21">
       <x:c r="A37" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>23</x:v>
@@ -3594,7 +3594,7 @@
     </x:row>
     <x:row r="38" spans="1:21">
       <x:c r="A38" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>23</x:v>
@@ -3654,12 +3654,12 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="U38" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:21">
       <x:c r="A39" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>23</x:v>
@@ -3719,12 +3719,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U39" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>160</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:21">
       <x:c r="A40" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>23</x:v>
@@ -3789,7 +3789,7 @@
     </x:row>
     <x:row r="41" spans="1:21">
       <x:c r="A41" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>23</x:v>
@@ -3849,12 +3849,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U41" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:21">
       <x:c r="A42" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>23</x:v>
@@ -3919,7 +3919,7 @@
     </x:row>
     <x:row r="43" spans="1:21">
       <x:c r="A43" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>23</x:v>
@@ -3984,22 +3984,22 @@
     </x:row>
     <x:row r="44" spans="1:21">
       <x:c r="A44" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E44" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F44" s="0" t="s">
         <x:v>167</x:v>
-      </x:c>
-      <x:c r="B44" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C44" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="D44" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E44" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F44" s="0" t="s">
-        <x:v>168</x:v>
       </x:c>
       <x:c r="G44" s="0" t="s">
         <x:v>23</x:v>
@@ -4020,7 +4020,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="M44" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="N44" s="0" t="s">
         <x:v>59</x:v>
@@ -4044,12 +4044,12 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="U44" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:21">
       <x:c r="A45" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>23</x:v>
@@ -4064,7 +4064,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F45" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="G45" s="0" t="s">
         <x:v>23</x:v>
@@ -4085,7 +4085,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="M45" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="N45" s="0" t="s">
         <x:v>23</x:v>
@@ -4129,7 +4129,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F46" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="G46" s="0" t="s">
         <x:v>23</x:v>
@@ -4194,7 +4194,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="F47" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="G47" s="0" t="s">
         <x:v>59</x:v>
@@ -4221,7 +4221,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="O47" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="P47" s="0" t="s">
         <x:v>23</x:v>
@@ -4886,7 +4886,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="T57" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="U57" s="1" t="s">
         <x:v>198</x:v>
@@ -5146,7 +5146,7 @@
         <x:v>209</x:v>
       </x:c>
       <x:c r="T61" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="U61" s="1" t="s">
         <x:v>210</x:v>
@@ -5580,7 +5580,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="M68" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="N68" s="0" t="s">
         <x:v>48</x:v>
@@ -5604,12 +5604,12 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="U68" s="1" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:21">
       <x:c r="A69" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
         <x:v>23</x:v>
@@ -5624,7 +5624,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="F69" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="G69" s="0" t="s">
         <x:v>26</x:v>
@@ -5645,13 +5645,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M69" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="N69" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="O69" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="P69" s="0" t="s">
         <x:v>26</x:v>
@@ -5663,18 +5663,18 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="S69" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="T69" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="U69" s="1" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:21">
       <x:c r="A70" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
         <x:v>23</x:v>
@@ -5739,7 +5739,7 @@
     </x:row>
     <x:row r="71" spans="1:21">
       <x:c r="A71" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
         <x:v>23</x:v>
@@ -5775,13 +5775,13 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="M71" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N71" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O71" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="P71" s="0" t="s">
         <x:v>23</x:v>
@@ -5793,18 +5793,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S71" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="T71" s="0" t="s">
         <x:v>59</x:v>
       </x:c>
       <x:c r="U71" s="1" t="s">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:21">
       <x:c r="A72" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
         <x:v>59</x:v>
@@ -5840,7 +5840,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="M72" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="N72" s="0" t="s">
         <x:v>38</x:v>
@@ -5864,12 +5864,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U72" s="1" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:21">
       <x:c r="A73" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
         <x:v>26</x:v>
@@ -5934,7 +5934,7 @@
     </x:row>
     <x:row r="74" spans="1:21">
       <x:c r="A74" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
         <x:v>23</x:v>
@@ -5999,7 +5999,7 @@
     </x:row>
     <x:row r="75" spans="1:21">
       <x:c r="A75" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
         <x:v>23</x:v>
@@ -6064,7 +6064,7 @@
     </x:row>
     <x:row r="76" spans="1:21">
       <x:c r="A76" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
         <x:v>37</x:v>
@@ -6079,7 +6079,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="F76" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="G76" s="0" t="s">
         <x:v>23</x:v>
@@ -6129,7 +6129,7 @@
     </x:row>
     <x:row r="77" spans="1:21">
       <x:c r="A77" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
         <x:v>23</x:v>
@@ -6194,7 +6194,7 @@
     </x:row>
     <x:row r="78" spans="1:21">
       <x:c r="A78" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
         <x:v>23</x:v>
@@ -6259,7 +6259,7 @@
     </x:row>
     <x:row r="79" spans="1:21">
       <x:c r="A79" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
         <x:v>26</x:v>
@@ -6324,7 +6324,7 @@
     </x:row>
     <x:row r="80" spans="1:21">
       <x:c r="A80" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
         <x:v>23</x:v>
@@ -6360,7 +6360,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="M80" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="N80" s="0" t="s">
         <x:v>59</x:v>
@@ -6384,12 +6384,12 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="U80" s="1" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:21">
       <x:c r="A81" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
         <x:v>22</x:v>
@@ -6404,7 +6404,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="F81" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="G81" s="0" t="s">
         <x:v>26</x:v>
@@ -6413,7 +6413,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="I81" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="J81" s="0" t="s">
         <x:v>27</x:v>
@@ -6425,7 +6425,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="M81" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="N81" s="0" t="s">
         <x:v>62</x:v>
@@ -6620,7 +6620,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="M84" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="N84" s="0" t="s">
         <x:v>26</x:v>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
@@ -292,433 +292,433 @@
     <x:t>48</x:t>
   </x:si>
   <x:si>
-    <x:t>101</x:t>
+    <x:t>100</x:t>
   </x:si>
   <x:si>
     <x:t>55</x:t>
   </x:si>
   <x:si>
+    <x:t>362</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clearwater</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cook</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cottonwood</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crow Wing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>149</x:t>
+  </x:si>
+  <x:si>
+    <x:t>175</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>443</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dakota</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>145</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>138</x:t>
+  </x:si>
+  <x:si>
+    <x:t>114</x:t>
+  </x:si>
+  <x:si>
+    <x:t>547</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dodge</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Douglas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>193</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Faribault</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fillmore</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Freeborn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>185</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goodhue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>67</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>135</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hennepin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>124</x:t>
+  </x:si>
+  <x:si>
+    <x:t>250</x:t>
+  </x:si>
+  <x:si>
+    <x:t>268</x:t>
+  </x:si>
+  <x:si>
+    <x:t>909</x:t>
+  </x:si>
+  <x:si>
+    <x:t>207</x:t>
+  </x:si>
+  <x:si>
+    <x:t>410</x:t>
+  </x:si>
+  <x:si>
+    <x:t>550</x:t>
+  </x:si>
+  <x:si>
+    <x:t>261</x:t>
+  </x:si>
+  <x:si>
+    <x:t>176</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3328</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Houston</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hubbard</x:t>
+  </x:si>
+  <x:si>
+    <x:t>111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>128</x:t>
+  </x:si>
+  <x:si>
+    <x:t>266</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Isanti</x:t>
+  </x:si>
+  <x:si>
+    <x:t>92</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Itasca</x:t>
+  </x:si>
+  <x:si>
+    <x:t>158</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jackson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kanabec</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kandiyohi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>98</x:t>
+  </x:si>
+  <x:si>
+    <x:t>139</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>335</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kittson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Koochiching</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lac qui Parle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lake</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Le Sueur</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lincoln</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lyon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>155</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahnomen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marshall</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Martin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>McLeod</x:t>
+  </x:si>
+  <x:si>
+    <x:t>73</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>157</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Meeker</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mille Lacs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>222</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Morrison</x:t>
+  </x:si>
+  <x:si>
+    <x:t>80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mower</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>110</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Murray</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nicollet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nobles</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>163</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Norman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Olmsted</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150</x:t>
+  </x:si>
+  <x:si>
+    <x:t>91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>426</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Otter Tail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74</x:t>
+  </x:si>
+  <x:si>
+    <x:t>166</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pennington</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pine</x:t>
+  </x:si>
+  <x:si>
+    <x:t>198</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pipestone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Polk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>217</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pope</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ramsey</x:t>
+  </x:si>
+  <x:si>
+    <x:t>485</x:t>
+  </x:si>
+  <x:si>
+    <x:t>71</x:t>
+  </x:si>
+  <x:si>
+    <x:t>285</x:t>
+  </x:si>
+  <x:si>
+    <x:t>117</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1309</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Red Lake</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Redwood</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Renville</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>254</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rock</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roseau</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scott</x:t>
+  </x:si>
+  <x:si>
+    <x:t>172</x:t>
+  </x:si>
+  <x:si>
+    <x:t>177</x:t>
+  </x:si>
+  <x:si>
+    <x:t>775</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sherburne</x:t>
+  </x:si>
+  <x:si>
+    <x:t>305</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>83</x:t>
+  </x:si>
+  <x:si>
+    <x:t>552</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sibley</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St. Louis</x:t>
+  </x:si>
+  <x:si>
+    <x:t>105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>353</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stearns</x:t>
+  </x:si>
+  <x:si>
     <x:t>363</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clearwater</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cook</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cottonwood</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crow Wing</x:t>
-  </x:si>
-  <x:si>
-    <x:t>149</x:t>
-  </x:si>
-  <x:si>
-    <x:t>175</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>443</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dakota</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>145</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51</x:t>
-  </x:si>
-  <x:si>
-    <x:t>138</x:t>
-  </x:si>
-  <x:si>
-    <x:t>114</x:t>
-  </x:si>
-  <x:si>
-    <x:t>547</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dodge</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Douglas</x:t>
-  </x:si>
-  <x:si>
-    <x:t>57</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>193</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Faribault</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fillmore</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Freeborn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>88</x:t>
-  </x:si>
-  <x:si>
-    <x:t>185</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goodhue</x:t>
-  </x:si>
-  <x:si>
-    <x:t>67</x:t>
-  </x:si>
-  <x:si>
-    <x:t>47</x:t>
-  </x:si>
-  <x:si>
-    <x:t>135</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Grant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hennepin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>124</x:t>
-  </x:si>
-  <x:si>
-    <x:t>250</x:t>
-  </x:si>
-  <x:si>
-    <x:t>268</x:t>
-  </x:si>
-  <x:si>
-    <x:t>909</x:t>
-  </x:si>
-  <x:si>
-    <x:t>207</x:t>
-  </x:si>
-  <x:si>
-    <x:t>410</x:t>
-  </x:si>
-  <x:si>
-    <x:t>550</x:t>
-  </x:si>
-  <x:si>
-    <x:t>261</x:t>
-  </x:si>
-  <x:si>
-    <x:t>176</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3328</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Houston</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hubbard</x:t>
-  </x:si>
-  <x:si>
-    <x:t>111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>128</x:t>
-  </x:si>
-  <x:si>
-    <x:t>266</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Isanti</x:t>
-  </x:si>
-  <x:si>
-    <x:t>92</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Itasca</x:t>
-  </x:si>
-  <x:si>
-    <x:t>158</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jackson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kanabec</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kandiyohi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>98</x:t>
-  </x:si>
-  <x:si>
-    <x:t>139</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>335</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kittson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Koochiching</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lac qui Parle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lake</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Le Sueur</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lincoln</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lyon</x:t>
-  </x:si>
-  <x:si>
-    <x:t>155</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahnomen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Marshall</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Martin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36</x:t>
-  </x:si>
-  <x:si>
-    <x:t>McLeod</x:t>
-  </x:si>
-  <x:si>
-    <x:t>73</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>157</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Meeker</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mille Lacs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>222</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Morrison</x:t>
-  </x:si>
-  <x:si>
-    <x:t>80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mower</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>110</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Murray</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nicollet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>131</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nobles</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>163</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Norman</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Olmsted</x:t>
-  </x:si>
-  <x:si>
-    <x:t>150</x:t>
-  </x:si>
-  <x:si>
-    <x:t>91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>426</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Otter Tail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>74</x:t>
-  </x:si>
-  <x:si>
-    <x:t>166</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pennington</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pine</x:t>
-  </x:si>
-  <x:si>
-    <x:t>198</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pipestone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Polk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>217</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pope</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ramsey</x:t>
-  </x:si>
-  <x:si>
-    <x:t>485</x:t>
-  </x:si>
-  <x:si>
-    <x:t>71</x:t>
-  </x:si>
-  <x:si>
-    <x:t>285</x:t>
-  </x:si>
-  <x:si>
-    <x:t>117</x:t>
-  </x:si>
-  <x:si>
-    <x:t>63</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1309</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Red Lake</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Redwood</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Renville</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>254</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rock</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roseau</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Scott</x:t>
-  </x:si>
-  <x:si>
-    <x:t>172</x:t>
-  </x:si>
-  <x:si>
-    <x:t>177</x:t>
-  </x:si>
-  <x:si>
-    <x:t>775</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sherburne</x:t>
-  </x:si>
-  <x:si>
-    <x:t>305</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46</x:t>
-  </x:si>
-  <x:si>
-    <x:t>83</x:t>
-  </x:si>
-  <x:si>
-    <x:t>552</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sibley</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St. Louis</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62</x:t>
-  </x:si>
-  <x:si>
-    <x:t>105</x:t>
-  </x:si>
-  <x:si>
-    <x:t>352</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stearns</x:t>
   </x:si>
   <x:si>
     <x:t>85</x:t>
@@ -5775,13 +5775,13 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="M71" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="N71" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="O71" s="0" t="s">
         <x:v>231</x:v>
-      </x:c>
-      <x:c r="N71" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="O71" s="0" t="s">
-        <x:v>232</x:v>
       </x:c>
       <x:c r="P71" s="0" t="s">
         <x:v>23</x:v>
@@ -5799,12 +5799,12 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="U71" s="1" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:21">
       <x:c r="A72" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
         <x:v>59</x:v>
@@ -5819,7 +5819,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="F72" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="G72" s="0" t="s">
         <x:v>23</x:v>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
@@ -637,7 +637,7 @@
     <x:t>71</x:t>
   </x:si>
   <x:si>
-    <x:t>285</x:t>
+    <x:t>284</x:t>
   </x:si>
   <x:si>
     <x:t>117</x:t>
@@ -646,7 +646,7 @@
     <x:t>63</x:t>
   </x:si>
   <x:si>
-    <x:t>1309</x:t>
+    <x:t>1308</x:t>
   </x:si>
   <x:si>
     <x:t>Red Lake</x:t>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
@@ -406,7 +406,7 @@
     <x:t>268</x:t>
   </x:si>
   <x:si>
-    <x:t>909</x:t>
+    <x:t>907</x:t>
   </x:si>
   <x:si>
     <x:t>207</x:t>
@@ -424,7 +424,7 @@
     <x:t>176</x:t>
   </x:si>
   <x:si>
-    <x:t>3328</x:t>
+    <x:t>3326</x:t>
   </x:si>
   <x:si>
     <x:t>Houston</x:t>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
@@ -415,7 +415,7 @@
     <x:t>410</x:t>
   </x:si>
   <x:si>
-    <x:t>550</x:t>
+    <x:t>548</x:t>
   </x:si>
   <x:si>
     <x:t>261</x:t>
@@ -424,7 +424,7 @@
     <x:t>176</x:t>
   </x:si>
   <x:si>
-    <x:t>3326</x:t>
+    <x:t>3324</x:t>
   </x:si>
   <x:si>
     <x:t>Houston</x:t>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
@@ -664,10 +664,10 @@
     <x:t>Rice</x:t>
   </x:si>
   <x:si>
-    <x:t>103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>254</x:t>
+    <x:t>102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>253</x:t>
   </x:si>
   <x:si>
     <x:t>Rock</x:t>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
@@ -406,7 +406,7 @@
     <x:t>268</x:t>
   </x:si>
   <x:si>
-    <x:t>907</x:t>
+    <x:t>906</x:t>
   </x:si>
   <x:si>
     <x:t>207</x:t>
@@ -424,7 +424,7 @@
     <x:t>176</x:t>
   </x:si>
   <x:si>
-    <x:t>3324</x:t>
+    <x:t>3323</x:t>
   </x:si>
   <x:si>
     <x:t>Houston</x:t>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
@@ -133,7 +133,7 @@
     <x:t>15</x:t>
   </x:si>
   <x:si>
-    <x:t>340</x:t>
+    <x:t>339</x:t>
   </x:si>
   <x:si>
     <x:t>8</x:t>
@@ -145,7 +145,7 @@
     <x:t>18</x:t>
   </x:si>
   <x:si>
-    <x:t>759</x:t>
+    <x:t>758</x:t>
   </x:si>
   <x:si>
     <x:t>Becker</x:t>
@@ -295,10 +295,10 @@
     <x:t>100</x:t>
   </x:si>
   <x:si>
-    <x:t>55</x:t>
-  </x:si>
-  <x:si>
-    <x:t>362</x:t>
+    <x:t>54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>361</x:t>
   </x:si>
   <x:si>
     <x:t>Clearwater</x:t>
@@ -685,7 +685,7 @@
     <x:t>177</x:t>
   </x:si>
   <x:si>
-    <x:t>775</x:t>
+    <x:t>774</x:t>
   </x:si>
   <x:si>
     <x:t>Sherburne</x:t>
@@ -5568,7 +5568,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="I68" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="J68" s="0" t="s">
         <x:v>28</x:v>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
@@ -760,10 +760,13 @@
     <x:t>281</x:t>
   </x:si>
   <x:si>
-    <x:t>134</x:t>
-  </x:si>
-  <x:si>
-    <x:t>795</x:t>
+    <x:t>123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>133</x:t>
+  </x:si>
+  <x:si>
+    <x:t>793</x:t>
   </x:si>
   <x:si>
     <x:t>Watonwan</x:t>
@@ -6425,13 +6428,13 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="M81" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="N81" s="0" t="s">
         <x:v>62</x:v>
       </x:c>
       <x:c r="O81" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="P81" s="0" t="s">
         <x:v>28</x:v>
@@ -6449,12 +6452,12 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="U81" s="1" t="s">
-        <x:v>249</x:v>
+        <x:v>250</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:21">
       <x:c r="A82" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="B82" s="0" t="s">
         <x:v>23</x:v>
@@ -6519,7 +6522,7 @@
     </x:row>
     <x:row r="83" spans="1:21">
       <x:c r="A83" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="B83" s="0" t="s">
         <x:v>23</x:v>
@@ -6579,12 +6582,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U83" s="1" t="s">
-        <x:v>252</x:v>
+        <x:v>253</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:21">
       <x:c r="A84" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B84" s="0" t="s">
         <x:v>23</x:v>
@@ -6599,7 +6602,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="F84" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="G84" s="0" t="s">
         <x:v>23</x:v>
@@ -6644,12 +6647,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U84" s="1" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:21">
       <x:c r="A85" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B85" s="0" t="s">
         <x:v>26</x:v>
@@ -6664,7 +6667,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F85" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="G85" s="0" t="s">
         <x:v>59</x:v>
@@ -6691,7 +6694,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="O85" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="P85" s="0" t="s">
         <x:v>27</x:v>
@@ -6709,12 +6712,12 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="U85" s="1" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:21">
       <x:c r="A86" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B86" s="0" t="s">
         <x:v>23</x:v>
@@ -6774,7 +6777,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U86" s="1" t="s">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
@@ -406,7 +406,7 @@
     <x:t>268</x:t>
   </x:si>
   <x:si>
-    <x:t>906</x:t>
+    <x:t>905</x:t>
   </x:si>
   <x:si>
     <x:t>207</x:t>
@@ -424,7 +424,7 @@
     <x:t>176</x:t>
   </x:si>
   <x:si>
-    <x:t>3323</x:t>
+    <x:t>3322</x:t>
   </x:si>
   <x:si>
     <x:t>Houston</x:t>
@@ -760,13 +760,13 @@
     <x:t>281</x:t>
   </x:si>
   <x:si>
-    <x:t>123</x:t>
+    <x:t>122</x:t>
   </x:si>
   <x:si>
     <x:t>133</x:t>
   </x:si>
   <x:si>
-    <x:t>793</x:t>
+    <x:t>792</x:t>
   </x:si>
   <x:si>
     <x:t>Watonwan</x:t>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
@@ -133,7 +133,7 @@
     <x:t>15</x:t>
   </x:si>
   <x:si>
-    <x:t>339</x:t>
+    <x:t>338</x:t>
   </x:si>
   <x:si>
     <x:t>8</x:t>
@@ -145,7 +145,7 @@
     <x:t>18</x:t>
   </x:si>
   <x:si>
-    <x:t>758</x:t>
+    <x:t>757</x:t>
   </x:si>
   <x:si>
     <x:t>Becker</x:t>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
@@ -637,7 +637,7 @@
     <x:t>71</x:t>
   </x:si>
   <x:si>
-    <x:t>284</x:t>
+    <x:t>283</x:t>
   </x:si>
   <x:si>
     <x:t>117</x:t>
@@ -646,7 +646,7 @@
     <x:t>63</x:t>
   </x:si>
   <x:si>
-    <x:t>1308</x:t>
+    <x:t>1307</x:t>
   </x:si>
   <x:si>
     <x:t>Red Lake</x:t>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
@@ -292,13 +292,13 @@
     <x:t>48</x:t>
   </x:si>
   <x:si>
-    <x:t>100</x:t>
+    <x:t>99</x:t>
   </x:si>
   <x:si>
     <x:t>54</x:t>
   </x:si>
   <x:si>
-    <x:t>361</x:t>
+    <x:t>360</x:t>
   </x:si>
   <x:si>
     <x:t>Clearwater</x:t>
@@ -406,7 +406,7 @@
     <x:t>268</x:t>
   </x:si>
   <x:si>
-    <x:t>905</x:t>
+    <x:t>904</x:t>
   </x:si>
   <x:si>
     <x:t>207</x:t>
@@ -424,7 +424,7 @@
     <x:t>176</x:t>
   </x:si>
   <x:si>
-    <x:t>3322</x:t>
+    <x:t>3321</x:t>
   </x:si>
   <x:si>
     <x:t>Houston</x:t>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2021.xlsx
@@ -118,7 +118,7 @@
     <x:t>Anoka</x:t>
   </x:si>
   <x:si>
-    <x:t>42</x:t>
+    <x:t>41</x:t>
   </x:si>
   <x:si>
     <x:t>243</x:t>
@@ -145,7 +145,7 @@
     <x:t>18</x:t>
   </x:si>
   <x:si>
-    <x:t>757</x:t>
+    <x:t>756</x:t>
   </x:si>
   <x:si>
     <x:t>Becker</x:t>
@@ -224,9 +224,6 @@
   </x:si>
   <x:si>
     <x:t>Brown</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41</x:t>
   </x:si>
   <x:si>
     <x:t>Carlton</x:t>
@@ -1662,7 +1659,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
         <x:v>23</x:v>
@@ -1712,7 +1709,7 @@
     </x:row>
     <x:row r="9" spans="1:21">
       <x:c r="A9" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>23</x:v>
@@ -1727,28 +1724,28 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J9" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K9" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L9" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M9" s="0" t="s">
         <x:v>72</x:v>
-      </x:c>
-      <x:c r="G9" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H9" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="I9" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="J9" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="K9" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="L9" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="M9" s="0" t="s">
-        <x:v>73</x:v>
       </x:c>
       <x:c r="N9" s="0" t="s">
         <x:v>23</x:v>
@@ -1772,12 +1769,12 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="U9" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:21">
       <x:c r="A10" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>23</x:v>
@@ -1792,7 +1789,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
         <x:v>23</x:v>
@@ -1813,7 +1810,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="M10" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="N10" s="0" t="s">
         <x:v>23</x:v>
@@ -1837,77 +1834,77 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="U10" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:21">
       <x:c r="A11" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C11" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E11" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="F11" s="0" t="s">
+      <x:c r="G11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M11" s="0" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="G11" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H11" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="I11" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="J11" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="K11" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="L11" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="M11" s="0" t="s">
+      <x:c r="N11" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="O11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="P11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="Q11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="R11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="S11" s="0" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="N11" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="O11" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="P11" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="Q11" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="R11" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="S11" s="0" t="s">
+      <x:c r="T11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="U11" s="1" t="s">
         <x:v>82</x:v>
-      </x:c>
-      <x:c r="T11" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="U11" s="1" t="s">
-        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:21">
       <x:c r="A12" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>23</x:v>
@@ -1972,7 +1969,7 @@
     </x:row>
     <x:row r="13" spans="1:21">
       <x:c r="A13" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>23</x:v>
@@ -2032,27 +2029,27 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U13" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:21">
       <x:c r="A14" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="B14" s="0" t="s">
+      <x:c r="C14" s="0" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="C14" s="0" t="s">
+      <x:c r="D14" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="D14" s="0" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="E14" s="0" t="s">
+      <x:c r="F14" s="0" t="s">
         <x:v>90</x:v>
-      </x:c>
-      <x:c r="F14" s="0" t="s">
-        <x:v>91</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
         <x:v>59</x:v>
@@ -2061,7 +2058,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="I14" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="J14" s="0" t="s">
         <x:v>38</x:v>
@@ -2073,10 +2070,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="M14" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="N14" s="0" t="s">
         <x:v>92</x:v>
-      </x:c>
-      <x:c r="N14" s="0" t="s">
-        <x:v>93</x:v>
       </x:c>
       <x:c r="O14" s="0" t="s">
         <x:v>30</x:v>
@@ -2091,18 +2088,18 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="S14" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="T14" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="U14" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:21">
       <x:c r="A15" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>23</x:v>
@@ -2167,7 +2164,7 @@
     </x:row>
     <x:row r="16" spans="1:21">
       <x:c r="A16" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>23</x:v>
@@ -2232,7 +2229,7 @@
     </x:row>
     <x:row r="17" spans="1:21">
       <x:c r="A17" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>23</x:v>
@@ -2297,7 +2294,7 @@
     </x:row>
     <x:row r="18" spans="1:21">
       <x:c r="A18" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>23</x:v>
@@ -2309,10 +2306,10 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
         <x:v>23</x:v>
@@ -2333,13 +2330,13 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="M18" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="N18" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="O18" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="P18" s="0" t="s">
         <x:v>37</x:v>
@@ -2357,28 +2354,28 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="U18" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:21">
       <x:c r="A19" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="F19" s="0" t="s">
-        <x:v>105</x:v>
-      </x:c>
       <x:c r="G19" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
@@ -2386,7 +2383,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="I19" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J19" s="0" t="s">
         <x:v>26</x:v>
@@ -2398,13 +2395,13 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="M19" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="N19" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="O19" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="P19" s="0" t="s">
         <x:v>27</x:v>
@@ -2419,15 +2416,15 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="T19" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="U19" s="1" t="s">
         <x:v>108</x:v>
-      </x:c>
-      <x:c r="U19" s="1" t="s">
-        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:21">
       <x:c r="A20" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>23</x:v>
@@ -2442,7 +2439,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G20" s="0" t="s">
         <x:v>23</x:v>
@@ -2487,12 +2484,12 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="U20" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:21">
       <x:c r="A21" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>37</x:v>
@@ -2507,7 +2504,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F21" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="G21" s="0" t="s">
         <x:v>23</x:v>
@@ -2534,7 +2531,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="O21" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="P21" s="0" t="s">
         <x:v>26</x:v>
@@ -2552,12 +2549,12 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="U21" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:21">
       <x:c r="A22" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>23</x:v>
@@ -2622,7 +2619,7 @@
     </x:row>
     <x:row r="23" spans="1:21">
       <x:c r="A23" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>23</x:v>
@@ -2687,22 +2684,22 @@
     </x:row>
     <x:row r="24" spans="1:21">
       <x:c r="A24" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>59</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F24" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="G24" s="0" t="s">
         <x:v>26</x:v>
@@ -2723,7 +2720,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="M24" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="N24" s="0" t="s">
         <x:v>23</x:v>
@@ -2747,12 +2744,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U24" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:21">
       <x:c r="A25" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>26</x:v>
@@ -2767,7 +2764,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="F25" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="G25" s="0" t="s">
         <x:v>23</x:v>
@@ -2788,7 +2785,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M25" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="N25" s="0" t="s">
         <x:v>23</x:v>
@@ -2812,12 +2809,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U25" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:21">
       <x:c r="A26" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>23</x:v>
@@ -2882,31 +2879,31 @@
     </x:row>
     <x:row r="27" spans="1:21">
       <x:c r="A27" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
         <x:v>126</x:v>
       </x:c>
-      <x:c r="B27" s="0" t="s">
+      <x:c r="C27" s="0" t="s">
         <x:v>127</x:v>
-      </x:c>
-      <x:c r="C27" s="0" t="s">
-        <x:v>128</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="F27" s="0" t="s">
         <x:v>129</x:v>
-      </x:c>
-      <x:c r="F27" s="0" t="s">
-        <x:v>130</x:v>
       </x:c>
       <x:c r="G27" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H27" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I27" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="J27" s="0" t="s">
         <x:v>37</x:v>
@@ -2915,16 +2912,16 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="L27" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="M27" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="N27" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="O27" s="0" t="s">
         <x:v>132</x:v>
-      </x:c>
-      <x:c r="N27" s="0" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="O27" s="0" t="s">
-        <x:v>133</x:v>
       </x:c>
       <x:c r="P27" s="0" t="s">
         <x:v>31</x:v>
@@ -2936,18 +2933,18 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="S27" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="T27" s="0" t="s">
         <x:v>134</x:v>
       </x:c>
-      <x:c r="T27" s="0" t="s">
+      <x:c r="U27" s="1" t="s">
         <x:v>135</x:v>
-      </x:c>
-      <x:c r="U27" s="1" t="s">
-        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">
       <x:c r="A28" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>23</x:v>
@@ -2989,7 +2986,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O28" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="P28" s="0" t="s">
         <x:v>26</x:v>
@@ -3012,7 +3009,7 @@
     </x:row>
     <x:row r="29" spans="1:21">
       <x:c r="A29" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>23</x:v>
@@ -3027,7 +3024,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="F29" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="G29" s="0" t="s">
         <x:v>23</x:v>
@@ -3048,36 +3045,36 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="M29" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="N29" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="O29" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="P29" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="Q29" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="R29" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="S29" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="T29" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="U29" s="1" t="s">
         <x:v>140</x:v>
-      </x:c>
-      <x:c r="N29" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="O29" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="P29" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="Q29" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="R29" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="S29" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="T29" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="U29" s="1" t="s">
-        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:21">
       <x:c r="A30" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>23</x:v>
@@ -3137,12 +3134,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U30" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:21">
       <x:c r="A31" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>23</x:v>
@@ -3157,7 +3154,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F31" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="G31" s="0" t="s">
         <x:v>23</x:v>
@@ -3196,18 +3193,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S31" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="T31" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="U31" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:21">
       <x:c r="A32" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>23</x:v>
@@ -3267,12 +3264,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U32" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:21">
       <x:c r="A33" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>23</x:v>
@@ -3314,7 +3311,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O33" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="P33" s="0" t="s">
         <x:v>23</x:v>
@@ -3332,12 +3329,12 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="U33" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:21">
       <x:c r="A34" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>23</x:v>
@@ -3352,7 +3349,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F34" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="G34" s="0" t="s">
         <x:v>23</x:v>
@@ -3373,13 +3370,13 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="M34" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="N34" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="O34" s="0" t="s">
         <x:v>151</x:v>
-      </x:c>
-      <x:c r="N34" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="O34" s="0" t="s">
-        <x:v>152</x:v>
       </x:c>
       <x:c r="P34" s="0" t="s">
         <x:v>28</x:v>
@@ -3397,12 +3394,12 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="U34" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:21">
       <x:c r="A35" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>23</x:v>
@@ -3467,7 +3464,7 @@
     </x:row>
     <x:row r="36" spans="1:21">
       <x:c r="A36" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>23</x:v>
@@ -3503,7 +3500,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M36" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="N36" s="0" t="s">
         <x:v>27</x:v>
@@ -3532,7 +3529,7 @@
     </x:row>
     <x:row r="37" spans="1:21">
       <x:c r="A37" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>23</x:v>
@@ -3592,12 +3589,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U37" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:21">
       <x:c r="A38" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>23</x:v>
@@ -3633,7 +3630,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="M38" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N38" s="0" t="s">
         <x:v>23</x:v>
@@ -3657,12 +3654,12 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="U38" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:21">
       <x:c r="A39" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>23</x:v>
@@ -3722,12 +3719,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U39" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:21">
       <x:c r="A40" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>23</x:v>
@@ -3787,12 +3784,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U40" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:21">
       <x:c r="A41" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>23</x:v>
@@ -3807,7 +3804,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F41" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G41" s="0" t="s">
         <x:v>23</x:v>
@@ -3852,12 +3849,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U41" s="1" t="s">
-        <x:v>163</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:21">
       <x:c r="A42" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>23</x:v>
@@ -3917,12 +3914,12 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="U42" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:21">
       <x:c r="A43" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>23</x:v>
@@ -3987,22 +3984,22 @@
     </x:row>
     <x:row r="44" spans="1:21">
       <x:c r="A44" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E44" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F44" s="0" t="s">
         <x:v>166</x:v>
-      </x:c>
-      <x:c r="B44" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C44" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="D44" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E44" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F44" s="0" t="s">
-        <x:v>167</x:v>
       </x:c>
       <x:c r="G44" s="0" t="s">
         <x:v>23</x:v>
@@ -4023,7 +4020,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="M44" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="N44" s="0" t="s">
         <x:v>59</x:v>
@@ -4047,12 +4044,12 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="U44" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:21">
       <x:c r="A45" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>23</x:v>
@@ -4067,7 +4064,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F45" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="G45" s="0" t="s">
         <x:v>23</x:v>
@@ -4088,7 +4085,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="M45" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="N45" s="0" t="s">
         <x:v>23</x:v>
@@ -4106,18 +4103,18 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="S45" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="T45" s="0" t="s">
         <x:v>59</x:v>
       </x:c>
       <x:c r="U45" s="1" t="s">
-        <x:v>171</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:21">
       <x:c r="A46" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>23</x:v>
@@ -4132,7 +4129,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F46" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="G46" s="0" t="s">
         <x:v>23</x:v>
@@ -4153,7 +4150,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="M46" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="N46" s="0" t="s">
         <x:v>23</x:v>
@@ -4177,12 +4174,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U46" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:21">
       <x:c r="A47" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>26</x:v>
@@ -4194,10 +4191,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E47" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="F47" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="G47" s="0" t="s">
         <x:v>59</x:v>
@@ -4206,7 +4203,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I47" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="J47" s="0" t="s">
         <x:v>23</x:v>
@@ -4224,7 +4221,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="O47" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="P47" s="0" t="s">
         <x:v>23</x:v>
@@ -4242,12 +4239,12 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="U47" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:21">
       <x:c r="A48" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>23</x:v>
@@ -4262,7 +4259,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F48" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="G48" s="0" t="s">
         <x:v>23</x:v>
@@ -4307,12 +4304,12 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="U48" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:21">
       <x:c r="A49" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>23</x:v>
@@ -4324,10 +4321,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E49" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F49" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="G49" s="0" t="s">
         <x:v>23</x:v>
@@ -4372,12 +4369,12 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="U49" s="1" t="s">
-        <x:v>180</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:21">
       <x:c r="A50" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>23</x:v>
@@ -4442,7 +4439,7 @@
     </x:row>
     <x:row r="51" spans="1:21">
       <x:c r="A51" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>23</x:v>
@@ -4457,7 +4454,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="F51" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="G51" s="0" t="s">
         <x:v>23</x:v>
@@ -4502,12 +4499,12 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="U51" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:21">
       <x:c r="A52" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>24</x:v>
@@ -4522,7 +4519,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F52" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="G52" s="0" t="s">
         <x:v>26</x:v>
@@ -4543,7 +4540,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="M52" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="N52" s="0" t="s">
         <x:v>59</x:v>
@@ -4567,12 +4564,12 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="U52" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:21">
       <x:c r="A53" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>23</x:v>
@@ -4637,22 +4634,22 @@
     </x:row>
     <x:row r="54" spans="1:21">
       <x:c r="A54" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="C54" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="D54" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="E54" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F54" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="G54" s="0" t="s">
         <x:v>23</x:v>
@@ -4661,7 +4658,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="I54" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="J54" s="0" t="s">
         <x:v>59</x:v>
@@ -4673,13 +4670,13 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="M54" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="N54" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="O54" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="P54" s="0" t="s">
         <x:v>22</x:v>
@@ -4697,12 +4694,12 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="U54" s="1" t="s">
-        <x:v>192</x:v>
+        <x:v>191</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:21">
       <x:c r="A55" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>23</x:v>
@@ -4717,7 +4714,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F55" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="G55" s="0" t="s">
         <x:v>23</x:v>
@@ -4738,13 +4735,13 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="M55" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="N55" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="O55" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="P55" s="0" t="s">
         <x:v>23</x:v>
@@ -4762,12 +4759,12 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="U55" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:21">
       <x:c r="A56" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>23</x:v>
@@ -4832,7 +4829,7 @@
     </x:row>
     <x:row r="57" spans="1:21">
       <x:c r="A57" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>26</x:v>
@@ -4868,7 +4865,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="M57" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="N57" s="0" t="s">
         <x:v>26</x:v>
@@ -4889,15 +4886,15 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="T57" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="U57" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>197</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:21">
       <x:c r="A58" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>23</x:v>
@@ -4962,7 +4959,7 @@
     </x:row>
     <x:row r="59" spans="1:21">
       <x:c r="A59" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>23</x:v>
@@ -4977,7 +4974,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="F59" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="G59" s="0" t="s">
         <x:v>23</x:v>
@@ -4998,7 +4995,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M59" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="N59" s="0" t="s">
         <x:v>26</x:v>
@@ -5022,12 +5019,12 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="U59" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>201</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:21">
       <x:c r="A60" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>23</x:v>
@@ -5092,13 +5089,13 @@
     </x:row>
     <x:row r="61" spans="1:21">
       <x:c r="A61" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
       <x:c r="C61" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="D61" s="0" t="s">
         <x:v>23</x:v>
@@ -5107,7 +5104,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="F61" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="G61" s="0" t="s">
         <x:v>23</x:v>
@@ -5116,7 +5113,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="I61" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="J61" s="0" t="s">
         <x:v>26</x:v>
@@ -5128,13 +5125,13 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="M61" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="N61" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="O61" s="0" t="s">
         <x:v>207</x:v>
-      </x:c>
-      <x:c r="N61" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="O61" s="0" t="s">
-        <x:v>208</x:v>
       </x:c>
       <x:c r="P61" s="0" t="s">
         <x:v>55</x:v>
@@ -5146,18 +5143,18 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="S61" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="T61" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="U61" s="1" t="s">
         <x:v>209</x:v>
-      </x:c>
-      <x:c r="T61" s="0" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="U61" s="1" t="s">
-        <x:v>210</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:21">
       <x:c r="A62" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>23</x:v>
@@ -5217,27 +5214,27 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U62" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:21">
       <x:c r="A63" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="B63" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C63" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D63" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E63" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F63" s="0" t="s">
         <x:v>212</x:v>
-      </x:c>
-      <x:c r="B63" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C63" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D63" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E63" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F63" s="0" t="s">
-        <x:v>213</x:v>
       </x:c>
       <x:c r="G63" s="0" t="s">
         <x:v>23</x:v>
@@ -5258,7 +5255,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M63" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="N63" s="0" t="s">
         <x:v>23</x:v>
@@ -5287,7 +5284,7 @@
     </x:row>
     <x:row r="64" spans="1:21">
       <x:c r="A64" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>23</x:v>
@@ -5329,7 +5326,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="O64" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="P64" s="0" t="s">
         <x:v>28</x:v>
@@ -5352,13 +5349,13 @@
     </x:row>
     <x:row r="65" spans="1:21">
       <x:c r="A65" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="C65" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D65" s="0" t="s">
         <x:v>27</x:v>
@@ -5367,7 +5364,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F65" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="G65" s="0" t="s">
         <x:v>23</x:v>
@@ -5388,13 +5385,13 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="M65" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="N65" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="O65" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="P65" s="0" t="s">
         <x:v>37</x:v>
@@ -5412,12 +5409,12 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="U65" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:21">
       <x:c r="A66" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>23</x:v>
@@ -5482,7 +5479,7 @@
     </x:row>
     <x:row r="67" spans="1:21">
       <x:c r="A67" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
         <x:v>23</x:v>
@@ -5497,29 +5494,29 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F67" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="G67" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H67" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I67" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="J67" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K67" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L67" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M67" s="0" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="G67" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H67" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="I67" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="J67" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="K67" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="L67" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="M67" s="0" t="s">
-        <x:v>89</x:v>
-      </x:c>
       <x:c r="N67" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
@@ -5542,36 +5539,36 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U67" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:21">
       <x:c r="A68" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="C68" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="D68" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="E68" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F68" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="G68" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H68" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I68" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="J68" s="0" t="s">
         <x:v>28</x:v>
@@ -5583,13 +5580,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="M68" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="N68" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
       <x:c r="O68" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="P68" s="0" t="s">
         <x:v>55</x:v>
@@ -5598,36 +5595,36 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="R68" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="S68" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="T68" s="0" t="s">
         <x:v>57</x:v>
       </x:c>
       <x:c r="U68" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:21">
       <x:c r="A69" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="C69" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D69" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="E69" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F69" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="G69" s="0" t="s">
         <x:v>26</x:v>
@@ -5648,13 +5645,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M69" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="N69" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="O69" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="P69" s="0" t="s">
         <x:v>26</x:v>
@@ -5666,18 +5663,18 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="S69" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="T69" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="U69" s="1" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:21">
       <x:c r="A70" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
         <x:v>23</x:v>
@@ -5737,12 +5734,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U70" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:21">
       <x:c r="A71" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
         <x:v>23</x:v>
@@ -5757,7 +5754,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="F71" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G71" s="0" t="s">
         <x:v>26</x:v>
@@ -5778,42 +5775,42 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="M71" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="N71" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O71" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="P71" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="Q71" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="R71" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="S71" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="T71" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="U71" s="1" t="s">
         <x:v>231</x:v>
-      </x:c>
-      <x:c r="P71" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="Q71" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="R71" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="S71" s="0" t="s">
-        <x:v>156</x:v>
-      </x:c>
-      <x:c r="T71" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="U71" s="1" t="s">
-        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:21">
       <x:c r="A72" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
         <x:v>59</x:v>
       </x:c>
       <x:c r="C72" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D72" s="0" t="s">
         <x:v>26</x:v>
@@ -5822,13 +5819,13 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="F72" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="G72" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H72" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="I72" s="0" t="s">
         <x:v>42</x:v>
@@ -5843,7 +5840,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="M72" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="N72" s="0" t="s">
         <x:v>38</x:v>
@@ -5861,18 +5858,18 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="S72" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="T72" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="U72" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:21">
       <x:c r="A73" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
         <x:v>26</x:v>
@@ -5887,7 +5884,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F73" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="G73" s="0" t="s">
         <x:v>23</x:v>
@@ -5908,7 +5905,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M73" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="N73" s="0" t="s">
         <x:v>24</x:v>
@@ -5932,12 +5929,12 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="U73" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:21">
       <x:c r="A74" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
         <x:v>23</x:v>
@@ -6002,7 +5999,7 @@
     </x:row>
     <x:row r="75" spans="1:21">
       <x:c r="A75" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
         <x:v>23</x:v>
@@ -6017,7 +6014,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F75" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G75" s="0" t="s">
         <x:v>23</x:v>
@@ -6062,12 +6059,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U75" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:21">
       <x:c r="A76" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
         <x:v>37</x:v>
@@ -6082,7 +6079,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="F76" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="G76" s="0" t="s">
         <x:v>23</x:v>
@@ -6103,7 +6100,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="M76" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="N76" s="0" t="s">
         <x:v>23</x:v>
@@ -6127,12 +6124,12 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="U76" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:21">
       <x:c r="A77" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
         <x:v>23</x:v>
@@ -6197,7 +6194,7 @@
     </x:row>
     <x:row r="78" spans="1:21">
       <x:c r="A78" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
         <x:v>23</x:v>
@@ -6212,7 +6209,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F78" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G78" s="0" t="s">
         <x:v>23</x:v>
@@ -6233,7 +6230,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="M78" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N78" s="0" t="s">
         <x:v>23</x:v>
@@ -6257,12 +6254,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U78" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:21">
       <x:c r="A79" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
         <x:v>26</x:v>
@@ -6322,12 +6319,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U79" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:21">
       <x:c r="A80" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
         <x:v>23</x:v>
@@ -6363,7 +6360,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="M80" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="N80" s="0" t="s">
         <x:v>59</x:v>
@@ -6387,27 +6384,27 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="U80" s="1" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:21">
       <x:c r="A81" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="C81" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D81" s="0" t="s">
         <x:v>59</x:v>
       </x:c>
       <x:c r="E81" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F81" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="G81" s="0" t="s">
         <x:v>26</x:v>
@@ -6416,7 +6413,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="I81" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="J81" s="0" t="s">
         <x:v>27</x:v>
@@ -6425,16 +6422,16 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L81" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M81" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="N81" s="0" t="s">
         <x:v>62</x:v>
       </x:c>
       <x:c r="O81" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="P81" s="0" t="s">
         <x:v>28</x:v>
@@ -6446,18 +6443,18 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="S81" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="T81" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
       <x:c r="U81" s="1" t="s">
-        <x:v>250</x:v>
+        <x:v>249</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:21">
       <x:c r="A82" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="B82" s="0" t="s">
         <x:v>23</x:v>
@@ -6493,7 +6490,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M82" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N82" s="0" t="s">
         <x:v>23</x:v>
@@ -6517,12 +6514,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U82" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:21">
       <x:c r="A83" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="B83" s="0" t="s">
         <x:v>23</x:v>
@@ -6582,12 +6579,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U83" s="1" t="s">
-        <x:v>253</x:v>
+        <x:v>252</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:21">
       <x:c r="A84" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B84" s="0" t="s">
         <x:v>23</x:v>
@@ -6602,7 +6599,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="F84" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="G84" s="0" t="s">
         <x:v>23</x:v>
@@ -6623,7 +6620,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="M84" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="N84" s="0" t="s">
         <x:v>26</x:v>
@@ -6647,12 +6644,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U84" s="1" t="s">
-        <x:v>256</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:21">
       <x:c r="A85" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B85" s="0" t="s">
         <x:v>26</x:v>
@@ -6667,7 +6664,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F85" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="G85" s="0" t="s">
         <x:v>59</x:v>
@@ -6688,13 +6685,13 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="M85" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="N85" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="O85" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="P85" s="0" t="s">
         <x:v>27</x:v>
@@ -6706,18 +6703,18 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="S85" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="T85" s="0" t="s">
         <x:v>62</x:v>
       </x:c>
       <x:c r="U85" s="1" t="s">
-        <x:v>259</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:21">
       <x:c r="A86" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B86" s="0" t="s">
         <x:v>23</x:v>
@@ -6777,7 +6774,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U86" s="1" t="s">
-        <x:v>261</x:v>
+        <x:v>260</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
